--- a/df_list_20241202.xlsx
+++ b/df_list_20241202.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤정은책임\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF4F469-3AEA-4C2D-B5FF-1A35688B63F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18789" windowHeight="7209" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="QHWhkc6CfaMJnKfYWaHcQzIEcO4UAcIQuuXnF9W0qfM="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="159">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -490,47 +499,73 @@
   </si>
   <si>
     <t>신기술・특허 공법선정위원회 평가결과 공고(동서가구 삼거리~신망정 사거리간 도로확포장공사)</t>
+  </si>
+  <si>
+    <t>수집일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="System-ui"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -538,7 +573,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -547,8 +582,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -562,52 +603,61 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -797,23 +847,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="4" width="8.69140625" customWidth="1"/>
+    <col min="5" max="5" width="19.3828125" customWidth="1"/>
+    <col min="6" max="6" width="14.84375" customWidth="1"/>
+    <col min="7" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="14.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,8 +884,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -844,10 +902,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>45628</v>
+      </c>
+      <c r="F2" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -861,10 +922,13 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>45628</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.6">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -878,10 +942,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>45628</v>
+      </c>
+      <c r="F4" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.6">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -895,10 +962,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>45628</v>
+      </c>
+      <c r="F5" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.6">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -912,10 +982,13 @@
         <v>21</v>
       </c>
       <c r="E6" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>45628</v>
+      </c>
+      <c r="F6" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.6">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -929,10 +1002,13 @@
         <v>22</v>
       </c>
       <c r="E7" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>45628</v>
+      </c>
+      <c r="F7" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.6">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -946,10 +1022,13 @@
         <v>26</v>
       </c>
       <c r="E8" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>45628</v>
+      </c>
+      <c r="F8" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.6">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -963,10 +1042,13 @@
         <v>30</v>
       </c>
       <c r="E9" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>45628</v>
+      </c>
+      <c r="F9" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.6">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -980,10 +1062,13 @@
         <v>12</v>
       </c>
       <c r="E10" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>45628</v>
+      </c>
+      <c r="F10" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.6">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -997,10 +1082,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>45628</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.6">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1014,10 +1102,13 @@
         <v>38</v>
       </c>
       <c r="E12" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>45628</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.6">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1031,10 +1122,13 @@
         <v>42</v>
       </c>
       <c r="E13" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>45628</v>
+      </c>
+      <c r="F13" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.6">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1048,10 +1142,13 @@
         <v>46</v>
       </c>
       <c r="E14" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>45628</v>
+      </c>
+      <c r="F14" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.6">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -1065,10 +1162,13 @@
         <v>50</v>
       </c>
       <c r="E15" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>45628</v>
+      </c>
+      <c r="F15" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.6">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1082,10 +1182,13 @@
         <v>54</v>
       </c>
       <c r="E16" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>45628</v>
+      </c>
+      <c r="F16" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.6">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1099,10 +1202,13 @@
         <v>58</v>
       </c>
       <c r="E17" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>45628</v>
+      </c>
+      <c r="F17" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.6">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -1116,10 +1222,13 @@
         <v>62</v>
       </c>
       <c r="E18" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>45628</v>
+      </c>
+      <c r="F18" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.6">
       <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
@@ -1133,10 +1242,13 @@
         <v>66</v>
       </c>
       <c r="E19" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>45628</v>
+      </c>
+      <c r="F19" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.6">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
@@ -1150,10 +1262,13 @@
         <v>70</v>
       </c>
       <c r="E20" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F20" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
@@ -1167,10 +1282,13 @@
         <v>74</v>
       </c>
       <c r="E21" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F21" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>71</v>
       </c>
@@ -1184,10 +1302,13 @@
         <v>75</v>
       </c>
       <c r="E22" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F22" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>76</v>
       </c>
@@ -1201,10 +1322,13 @@
         <v>79</v>
       </c>
       <c r="E23" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F23" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>76</v>
       </c>
@@ -1218,10 +1342,13 @@
         <v>80</v>
       </c>
       <c r="E24" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F24" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>81</v>
       </c>
@@ -1235,10 +1362,13 @@
         <v>84</v>
       </c>
       <c r="E25" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F25" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>85</v>
       </c>
@@ -1252,10 +1382,13 @@
         <v>88</v>
       </c>
       <c r="E26" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F26" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>89</v>
       </c>
@@ -1269,10 +1402,13 @@
         <v>92</v>
       </c>
       <c r="E27" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F27" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
@@ -1286,10 +1422,13 @@
         <v>96</v>
       </c>
       <c r="E28" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F28" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>93</v>
       </c>
@@ -1303,10 +1442,13 @@
         <v>97</v>
       </c>
       <c r="E29" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F29" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>98</v>
       </c>
@@ -1320,10 +1462,13 @@
         <v>101</v>
       </c>
       <c r="E30" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F30" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>102</v>
       </c>
@@ -1337,10 +1482,13 @@
         <v>105</v>
       </c>
       <c r="E31" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F31" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>102</v>
       </c>
@@ -1354,10 +1502,13 @@
         <v>106</v>
       </c>
       <c r="E32" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F32" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>102</v>
       </c>
@@ -1371,10 +1522,13 @@
         <v>107</v>
       </c>
       <c r="E33" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F33" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -1388,10 +1542,13 @@
         <v>108</v>
       </c>
       <c r="E34" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F34" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>109</v>
       </c>
@@ -1405,10 +1562,13 @@
         <v>112</v>
       </c>
       <c r="E35" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F35" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>113</v>
       </c>
@@ -1422,10 +1582,13 @@
         <v>116</v>
       </c>
       <c r="E36" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F36" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
@@ -1439,10 +1602,13 @@
         <v>120</v>
       </c>
       <c r="E37" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F37" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>121</v>
       </c>
@@ -1456,10 +1622,13 @@
         <v>124</v>
       </c>
       <c r="E38" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F38" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>125</v>
       </c>
@@ -1473,10 +1642,13 @@
         <v>128</v>
       </c>
       <c r="E39" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F39" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>125</v>
       </c>
@@ -1490,10 +1662,13 @@
         <v>129</v>
       </c>
       <c r="E40" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F40" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>130</v>
       </c>
@@ -1507,10 +1682,13 @@
         <v>133</v>
       </c>
       <c r="E41" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F41" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>134</v>
       </c>
@@ -1524,10 +1702,13 @@
         <v>137</v>
       </c>
       <c r="E42" s="3">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F42" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>18</v>
       </c>
@@ -1541,10 +1722,13 @@
         <v>21</v>
       </c>
       <c r="E43" s="6">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F43" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>18</v>
       </c>
@@ -1558,10 +1742,13 @@
         <v>22</v>
       </c>
       <c r="E44" s="6">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F44" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
@@ -1575,10 +1762,13 @@
         <v>138</v>
       </c>
       <c r="E45" s="6">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F45" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>139</v>
       </c>
@@ -1592,10 +1782,13 @@
         <v>142</v>
       </c>
       <c r="E46" s="6">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F46" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>143</v>
       </c>
@@ -1609,10 +1802,13 @@
         <v>146</v>
       </c>
       <c r="E47" s="6">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F47" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>147</v>
       </c>
@@ -1626,10 +1822,13 @@
         <v>150</v>
       </c>
       <c r="E48" s="6">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F48" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>147</v>
       </c>
@@ -1643,10 +1842,13 @@
         <v>151</v>
       </c>
       <c r="E49" s="6">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F49" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>76</v>
       </c>
@@ -1660,10 +1862,13 @@
         <v>79</v>
       </c>
       <c r="E50" s="6">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F50" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>76</v>
       </c>
@@ -1677,10 +1882,13 @@
         <v>80</v>
       </c>
       <c r="E51" s="6">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F51" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>85</v>
       </c>
@@ -1694,10 +1902,13 @@
         <v>88</v>
       </c>
       <c r="E52" s="6">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F52" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>109</v>
       </c>
@@ -1711,10 +1922,13 @@
         <v>112</v>
       </c>
       <c r="E53" s="6">
-        <v>45628.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <v>45628</v>
+      </c>
+      <c r="F53" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>154</v>
       </c>
@@ -1728,19 +1942,22 @@
         <v>157</v>
       </c>
       <c r="E54" s="9">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+        <v>45625</v>
+      </c>
+      <c r="F54" s="11">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -2678,22 +2895,21 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C43"/>
-    <hyperlink r:id="rId2" ref="C44"/>
-    <hyperlink r:id="rId3" ref="C45"/>
-    <hyperlink r:id="rId4" ref="C46"/>
-    <hyperlink r:id="rId5" ref="C47"/>
-    <hyperlink r:id="rId6" ref="C48"/>
-    <hyperlink r:id="rId7" ref="C49"/>
-    <hyperlink r:id="rId8" ref="C50"/>
-    <hyperlink r:id="rId9" ref="C51"/>
-    <hyperlink r:id="rId10" ref="C52"/>
-    <hyperlink r:id="rId11" ref="C53"/>
+    <hyperlink ref="C43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C44" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C45" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C46" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C47" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C48" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C49" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C50" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C51" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C52" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C53" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId12"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId12"/>
 </worksheet>
 </file>